--- a/APMN4BI_MetaSchema_Description_WS2017.xlsx
+++ b/APMN4BI_MetaSchema_Description_WS2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DW Tables" sheetId="2" r:id="rId1"/>
@@ -2538,7 +2538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2554,6 +2554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2585,7 +2591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2614,6 +2620,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -4692,13 +4699,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="77.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4735,7 +4742,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -11274,7 +11281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
